--- a/data/paleo_ocean_timeline.xlsx
+++ b/data/paleo_ocean_timeline.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandagardiner/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uzh-my.sharepoint.com/personal/gregor_mathes_pim_uzh_ch/Documents/1_postdoc/classic_diversity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F7DAB68A1DE9B5F578457189B2E144A9F1B43FC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F0B4795-F7DF-4D1B-A0FB-2A3C8D7F76D6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" tabRatio="500"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="32">
   <si>
     <t>Paleo-Ocean Basin</t>
   </si>
@@ -127,21 +128,12 @@
   </si>
   <si>
     <t>Upper_Cretaceous</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>SEAS</t>
-  </si>
-  <si>
-    <t>TSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -221,6 +213,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -488,14 +483,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+    <sheetView zoomScale="176" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -503,7 +498,7 @@
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -537,7 +532,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -554,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -571,7 +566,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -588,7 +583,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -605,7 +600,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -622,7 +617,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -639,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -656,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -673,7 +668,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -690,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -707,7 +702,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -724,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -742,8 +737,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14"/>
-  <sortState ref="A2:E14">
+  <autoFilter ref="A1:E14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
     <sortCondition descending="1" ref="C2:C14"/>
     <sortCondition descending="1" ref="E2:E14"/>
   </sortState>
@@ -753,20 +748,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -798,7 +793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -830,12 +825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -862,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -894,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -926,12 +921,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -958,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -990,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1022,12 +1017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1054,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1086,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1118,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
